--- a/02-Avancado1-Funcoes/05-FuncoesLogica/Aula-22-ExcelAvancado1-Juntando-SE-E-OU-FuncoesLogica.xlsx
+++ b/02-Avancado1-Funcoes/05-FuncoesLogica/Aula-22-ExcelAvancado1-Juntando-SE-E-OU-FuncoesLogica.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\robson.svaamonde\Downloads\msexcel\02-Avancado1-Funcoes\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\robson.svaamonde\Documents\msexcel\02-Avancado1-Funcoes\05-FuncoesLogica\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88A98236-5549-46F4-B4C9-BCEC79C0F7CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A20B5F72-0A24-4F8A-BC96-91A01E567831}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Juntando SE com E" sheetId="1" r:id="rId1"/>
@@ -676,6 +676,225 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>LÓGICA:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="63"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>SE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="63"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>E</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="63"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Prova 1 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>&gt;=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="63"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Prova para Aprovação, Prova 2 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>&gt;=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="63"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Prova para Aprovação, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>SE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="63"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>OU</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="63"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Frequência 1 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>&gt;=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="63"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Frequência para Aprovação, Frequência 2 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>&gt;=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="63"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Frequência para Aprovação </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="63"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Aprovado, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>SENÃO SE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="63"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Exame, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>SENÃO</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="63"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Reprovado</t>
+    </r>
+  </si>
+  <si>
+    <r>
       <t xml:space="preserve">O aluno e considerado </t>
     </r>
     <r>
@@ -705,7 +924,7 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>SE a Prova 1 E Prova 2</t>
+      <t>SE a Prova 1 E a Prova 2</t>
     </r>
     <r>
       <rPr>
@@ -771,226 +990,26 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve"> Igual ao valor estipulado.</t>
-    </r>
-  </si>
-  <si>
+      <t xml:space="preserve"> </t>
+    </r>
     <r>
       <rPr>
         <b/>
         <sz val="12"/>
-        <color rgb="FF333333"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>LÓGICA:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="63"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>SE</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="63"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
         <color rgb="FF00B050"/>
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>E</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="63"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> Prova 1 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>&gt;=</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="63"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> Prova para Aprovação, Prova 2 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>&gt;=</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="63"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> Prova para Aprovação, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>SE</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="63"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>OU</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="63"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> Frequência 1 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>&gt;=</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="63"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> Frequência para Aprovação, Frequência 2 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>&gt;=</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="63"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> Frequência para Aprovação </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>=</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="63"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> Aprovado, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>SENÃO SE</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="63"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> Exame, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>SENÃO</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="63"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> Reprovado</t>
+      <t>Igual</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="63"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> ao valor estipulado.</t>
     </r>
   </si>
 </sst>
@@ -3093,7 +3112,7 @@
     </row>
     <row r="10" spans="1:7">
       <c r="B10" s="39" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C10" s="39"/>
       <c r="D10" s="39"/>
@@ -3112,7 +3131,7 @@
     <row r="12" spans="1:7"/>
     <row r="13" spans="1:7">
       <c r="B13" s="39" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C13" s="39"/>
       <c r="D13" s="39"/>
